--- a/Go/软件结构.xlsx
+++ b/Go/软件结构.xlsx
@@ -328,102 +328,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="曲线连接符 12"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2984500" y="1092200"/>
-          <a:ext cx="2222500" cy="533400"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="曲线连接符 14"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="3067050" y="1765300"/>
-          <a:ext cx="2152650" cy="622300"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>15</xdr:row>
@@ -922,13 +826,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:colOff>488950</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>222250</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
@@ -939,7 +843,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6610350" y="1206500"/>
+          <a:off x="6584950" y="1206500"/>
           <a:ext cx="3390900" cy="1682750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1114,6 +1018,1946 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="曲线连接符 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3263900" y="1689100"/>
+          <a:ext cx="2273300" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4260850" y="1504950"/>
+          <a:ext cx="692150" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>socket</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2456763" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5499100" y="5645150"/>
+          <a:ext cx="2456763" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>IM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>聊天室的服务端的程序框架改进图</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5314950" y="6159500"/>
+          <a:ext cx="9144000" cy="3409950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>服务器</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>56175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>30534</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矩形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5537200" y="6456975"/>
+          <a:ext cx="1485900" cy="863359"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>main.go</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>监听</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>等待客户端的连接</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>3.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>初始化的工作</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>17615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>92723</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="矩形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7404100" y="6418415"/>
+          <a:ext cx="1644650" cy="964108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>processor.go </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>总的处理器</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>根据客户端的请求，调用对应的处理器，完成相应的任务</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>94173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>139197</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="矩形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9639300" y="7206173"/>
+          <a:ext cx="1752600" cy="578424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>userProcess.go</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>处理和用户相关的请求</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>登录 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>注册 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>3.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>注销</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>89228</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>117726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="矩形 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9664700" y="6490028"/>
+          <a:ext cx="1752600" cy="561898"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>smsProcess.go</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>处理短消息相关的请求</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>群聊  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>私聊  </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>14577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="曲线连接符 35"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="34" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9080500" y="6770977"/>
+          <a:ext cx="584200" cy="315624"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>144069</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>565152</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="曲线连接符 40"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9048750" y="6900469"/>
+          <a:ext cx="660402" cy="760806"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>144069</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="曲线连接符 48"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7010400" y="6900469"/>
+          <a:ext cx="393700" cy="128981"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="矩形 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457200" y="6153150"/>
+          <a:ext cx="4140200" cy="4362450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>客户端</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="矩形 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="577850" y="6394450"/>
+          <a:ext cx="1225550" cy="1016000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>main.go</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>一级菜单</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>根据用户输入调用对应处理器</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="矩形 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159000" y="7499350"/>
+          <a:ext cx="1358900" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>userProcess.go</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>处理用户相关数据</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="矩形 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2114550" y="6356350"/>
+          <a:ext cx="1358900" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>smsProcess.go</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>处理消息相关的数据</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="曲线连接符 63"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1663700" y="6635750"/>
+          <a:ext cx="558800" cy="469900"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="曲线连接符 65"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="58" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1555750" y="7372350"/>
+          <a:ext cx="755650" cy="450850"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="矩形 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="9372600"/>
+          <a:ext cx="1511300" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>sever.go</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>显示登录成功界面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>保持和服务端的通讯</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="矩形 71"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5575300" y="8420100"/>
+          <a:ext cx="1511300" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>utils.go</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>存放公共工具</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="矩形 72"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5289550" y="9683750"/>
+          <a:ext cx="9182100" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>common </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>message.go</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="矩形 70"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6597650" y="9753600"/>
+          <a:ext cx="1358900" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>utils.go</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>存放公共工具</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="流程图: 磁盘 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14655800" y="6242050"/>
+          <a:ext cx="2457450" cy="2882900"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>redis</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>hash</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>users----&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矩形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15474950" y="8032750"/>
+          <a:ext cx="1485900" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>100</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>用户信息</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>str</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>200 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>用户信息</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>str</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="矩形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11741150" y="6521450"/>
+          <a:ext cx="1670050" cy="2755900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>model[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>数据</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>user.go</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>定义</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>User</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>结构体</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>userDao.go</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>dao:data</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> access object</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>编写对</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>User</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>对象的各种操作</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>  主要是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>CRUD</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>error.go</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>自定义错误</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="曲线连接符 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11220450" y="7721600"/>
+          <a:ext cx="590550" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="曲线连接符 45"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11176000" y="6629400"/>
+          <a:ext cx="774700" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="矩形 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13519150" y="6515100"/>
+          <a:ext cx="889000" cy="673100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>redis</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>连接池</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="曲线连接符 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13315950" y="7842250"/>
+          <a:ext cx="1460500" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="曲线连接符 37"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="13188950" y="7029450"/>
+          <a:ext cx="596900" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="曲线连接符 39"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14236700" y="7048500"/>
+          <a:ext cx="869950" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1408,8 +3252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="AA56" sqref="AA56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>

--- a/Go/软件结构.xlsx
+++ b/Go/软件结构.xlsx
@@ -2222,13 +2222,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>450850</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
@@ -2239,7 +2239,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5289550" y="9683750"/>
+          <a:off x="5295900" y="9683750"/>
           <a:ext cx="9182100" cy="819150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2276,6 +2276,41 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>message.go</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>将</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>user.go</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>放入</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>common</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>包</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>新增两个消息类型 用于注册消息传递</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -2284,16 +2319,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>501650</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2302,7 +2337,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6597650" y="9753600"/>
+          <a:off x="9042400" y="9734550"/>
           <a:ext cx="1358900" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3252,8 +3287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="AA56" sqref="AA56"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="L65" sqref="L65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>

--- a/Go/软件结构.xlsx
+++ b/Go/软件结构.xlsx
@@ -3007,27 +3007,15 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>修改</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>Transfer </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>方法    剥离对</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>message.message</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>的相关处理，为加密传输做准备</a:t>
+            <a:t>优化</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>server</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>端代码，改进依赖关系。</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
@@ -3397,7 +3385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>

--- a/Go/软件结构.xlsx
+++ b/Go/软件结构.xlsx
@@ -13,6 +13,10 @@
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1689,9 +1693,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1701,7 +1705,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="457200" y="6153150"/>
-          <a:ext cx="4140200" cy="4362450"/>
+          <a:ext cx="4375150" cy="3441700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1744,9 +1748,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1756,7 +1760,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="577850" y="6394450"/>
-          <a:ext cx="1225550" cy="1016000"/>
+          <a:ext cx="984250" cy="857250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1812,14 +1816,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -1830,7 +1834,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2159000" y="7499350"/>
+          <a:off x="3206750" y="7499350"/>
           <a:ext cx="1358900" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1874,16 +1878,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>425450</xdr:colOff>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1892,7 +1896,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2114550" y="6356350"/>
+          <a:off x="3155950" y="6343650"/>
           <a:ext cx="1358900" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1936,16 +1940,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1953,9 +1957,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1663700" y="6635750"/>
-          <a:ext cx="558800" cy="469900"/>
+        <a:xfrm flipV="1">
+          <a:off x="2628900" y="7156450"/>
+          <a:ext cx="762000" cy="584200"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst/>
@@ -1984,14 +1988,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>488950</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -1999,16 +2003,19 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="66" name="曲线连接符 65"/>
         <xdr:cNvCxnSpPr>
+          <a:stCxn id="48" idx="3"/>
           <a:endCxn id="58" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="1555750" y="7372350"/>
-          <a:ext cx="755650" cy="450850"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector2">
-          <a:avLst/>
+        <a:xfrm>
+          <a:off x="2609850" y="7832725"/>
+          <a:ext cx="596900" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:headEnd type="arrow"/>
@@ -2034,16 +2041,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2052,8 +2059,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2393950" y="8724900"/>
-          <a:ext cx="1511300" cy="952500"/>
+          <a:off x="3098800" y="8623300"/>
+          <a:ext cx="1492250" cy="850900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2112,8 +2119,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
@@ -2130,8 +2137,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5295900" y="9683750"/>
-          <a:ext cx="9182100" cy="819150"/>
+          <a:off x="488950" y="9683750"/>
+          <a:ext cx="13989050" cy="819150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2161,36 +2168,22 @@
             <a:t>common </a:t>
           </a:r>
         </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>message.go</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>user.go</a:t>
-          </a:r>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2199,7 +2192,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6635750" y="9791700"/>
+          <a:off x="2336800" y="9779000"/>
           <a:ext cx="1727200" cy="520700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2868,16 +2861,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>49722</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>144972</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>488950</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2886,8 +2879,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9099550" y="8050722"/>
-          <a:ext cx="2362200" cy="896428"/>
+          <a:off x="9353550" y="8323772"/>
+          <a:ext cx="2133600" cy="864678"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2960,9 +2953,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2972,7 +2965,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="476250" y="10642600"/>
-          <a:ext cx="4057650" cy="1435100"/>
+          <a:ext cx="3975100" cy="768350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3007,17 +3000,8 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>优化</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>server</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>端代码，改进依赖关系。</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>进一步优化服务端代码结构，实现依赖关系的简化。</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3025,16 +3009,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3043,8 +3027,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="514350" y="8718550"/>
-          <a:ext cx="1670050" cy="1028700"/>
+          <a:off x="1263650" y="8610600"/>
+          <a:ext cx="1085850" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3088,6 +3072,295 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="矩形 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1473200" y="7442200"/>
+          <a:ext cx="1136650" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>View.go</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>用户交互界面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>587375</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>212725</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="曲线连接符 49"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="48" idx="2"/>
+          <a:endCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1730375" y="8299450"/>
+          <a:ext cx="387350" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>184151</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="曲线连接符 60"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="57" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="1506538" y="6878638"/>
+          <a:ext cx="561975" cy="450850"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="矩形 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4470400" y="9798050"/>
+          <a:ext cx="1727200" cy="520700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>message</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>消息类型</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="矩形 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6413500" y="9766300"/>
+          <a:ext cx="1727200" cy="520700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>user</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>用户结构体</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3385,8 +3658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="K67" sqref="K67"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="J65" activeCellId="1" sqref="J66 J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>

--- a/Go/软件结构.xlsx
+++ b/Go/软件结构.xlsx
@@ -13,10 +13,6 @@
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2862,13 +2858,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>292100</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>144972</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:colOff>596900</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
@@ -2879,7 +2875,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9353550" y="8323772"/>
+          <a:off x="9436100" y="8323772"/>
           <a:ext cx="2133600" cy="864678"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3000,8 +2996,17 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>进一步优化服务端代码结构，实现依赖关系的简化。</a:t>
-          </a:r>
+            <a:t>分离</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>User</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>结构体</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3658,8 +3663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="J65" activeCellId="1" sqref="J66 J65"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>

--- a/Go/软件结构.xlsx
+++ b/Go/软件结构.xlsx
@@ -2178,8 +2178,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2189,7 +2189,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2336800" y="9779000"/>
-          <a:ext cx="1727200" cy="520700"/>
+          <a:ext cx="1727200" cy="565150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3357,6 +3357,68 @@
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>用户结构体</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="矩形 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8362950" y="9753600"/>
+          <a:ext cx="1727200" cy="565150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>datasafe</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>数据加密工具</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
